--- a/ig/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:33:00+00:00</t>
+    <t>2024-05-23T12:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -237,10 +237,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Spécification métier vers l'extension ROR LocationSupportedCapacity</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Spécification métier vers l'extension ROR LocationSupportedCapacity</t>
   </si>
   <si>
     <t/>
@@ -988,8 +988,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="83.625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="83.625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1208,10 +1208,10 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1314,10 +1314,10 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1634,10 +1634,10 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1848,10 +1848,10 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1952,10 +1952,10 @@
         <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -2166,10 +2166,10 @@
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2380,10 +2380,10 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -2484,10 +2484,10 @@
         <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2698,10 +2698,10 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -2912,10 +2912,10 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -3016,10 +3016,10 @@
         <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -3230,10 +3230,10 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -3444,10 +3444,10 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -3550,10 +3550,10 @@
         <v>120</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -3764,10 +3764,10 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -3978,10 +3978,10 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -4082,10 +4082,10 @@
         <v>120</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -4296,10 +4296,10 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -4510,10 +4510,10 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -4614,10 +4614,10 @@
         <v>120</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="35">
@@ -4828,10 +4828,10 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="37">
@@ -5042,10 +5042,10 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -5148,10 +5148,10 @@
         <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -5362,10 +5362,10 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -5576,10 +5576,10 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -5680,10 +5680,10 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="45">
@@ -5894,10 +5894,10 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="47">
@@ -6108,10 +6108,10 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -6212,10 +6212,10 @@
         <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -6426,10 +6426,10 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -6640,10 +6640,10 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -6744,10 +6744,10 @@
         <v>120</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="55">
@@ -6958,10 +6958,10 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -7172,10 +7172,10 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -7276,10 +7276,10 @@
         <v>120</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="60">
@@ -7384,10 +7384,10 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="61">
@@ -7490,10 +7490,10 @@
         <v>120</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ig/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:16:26+00:00</t>
+    <t>2024-12-09T16:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
